--- a/基本設計書_イベント登録.xlsx
+++ b/基本設計書_イベント登録.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/kadai_sekkei/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{9CEC4A06-5D13-4998-9862-AA740C6E7656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9248BFDE-4354-4D9A-895A-8C83AE73600B}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{9CEC4A06-5D13-4998-9862-AA740C6E7656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7114CEA-098C-4C99-B935-221DD9AB5617}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="774" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3040" yWindow="3040" windowWidth="16920" windowHeight="10340" tabRatio="774" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="26" r:id="rId1"/>
     <sheet name="IO関連図" sheetId="13" r:id="rId2"/>
-    <sheet name="画面レイアウト_イベント登録画面" sheetId="36" r:id="rId3"/>
+    <sheet name="画面レイアウト_イベント登録画面" sheetId="37" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">IO関連図!$A$1:$AG$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">画面レイアウト_イベント登録画面!$A$1:$AG$52</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">画面レイアウト_イベント登録画面!$A$1:$AG$119</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AF$43</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">IO関連図!$1:$2</definedName>
   </definedNames>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -256,6 +256,23 @@
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>イベント登録確認</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>イベントが登録されました。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -264,7 +281,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -368,6 +385,12 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -536,7 +559,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -608,6 +631,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="4" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="4" applyFill="1" applyBorder="1"/>
@@ -659,9 +685,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1650,7 +1675,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>イベント一覧画面</a:t>
+            <a:t>イベント登録完了画面</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1855,23 +1880,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>224496</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>134698</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>27646</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>83898</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>237196</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>126680</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>40346</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>75880</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3FD2D68-BD44-42B2-B775-C13AD1611549}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A2DE501-9EE8-4C85-A642-1E6DD311F5CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1879,7 +1904,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7336496" y="8364298"/>
+          <a:off x="7393646" y="8478598"/>
           <a:ext cx="774700" cy="157082"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1919,7 +1944,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>登録する</a:t>
+            <a:t>確認する</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1944,7 +1969,7 @@
         <xdr:cNvPr id="3" name="テキスト ボックス 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DC94580-F451-4C52-AA6C-6FBFBFB46348}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C41EC9F8-33CB-422D-B3E8-37C5D71200DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2009,7 +2034,7 @@
         <xdr:cNvPr id="4" name="テキスト ボックス 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52811881-4918-4F29-9049-41BA36E2E84F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C3901B0-FE67-48FA-9F9E-787AD30B95A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2074,7 +2099,7 @@
         <xdr:cNvPr id="5" name="テキスト ボックス 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{666B5651-720B-4C4C-9AAC-49B49A158383}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00E94576-82D1-4B53-96D3-D9A690951A7D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2139,7 +2164,7 @@
         <xdr:cNvPr id="6" name="テキスト ボックス 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C39CD37-0497-4E8D-B7F3-F0313589DD6A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D8B344E-CBA4-4209-B618-39F40F66A463}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2186,25 +2211,220 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>205061</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>50928</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C081577-B778-4377-BB43-65A807155640}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="273050" y="12026900"/>
+          <a:ext cx="7806011" cy="1828928"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>224111</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>6478</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B41B4AA6-6159-403C-9D71-5E78157A0B8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="292100" y="14306550"/>
+          <a:ext cx="7806011" cy="1828928"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>211411</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>127128</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBD48FF8-9077-4056-8326-22ECBF196439}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="279400" y="6527800"/>
+          <a:ext cx="7806011" cy="1828928"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>186010</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>166960</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>147526</xdr:rowOff>
+      <xdr:rowOff>122126</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>74148</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>55098</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>61320</xdr:rowOff>
+      <xdr:rowOff>35920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="グラフィックス 6" descr="追加">
+        <xdr:cNvPr id="10" name="グラフィックス 9" descr="追加">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FD44CE0-7B51-4A55-A24D-C00712C86FC0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AE4A57E-2A15-4E0C-AAB9-8EBE68519F92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2226,7 +2446,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3488010" y="6891226"/>
+          <a:off x="3722960" y="6865826"/>
           <a:ext cx="904138" cy="904394"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2234,6 +2454,152 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>99932</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A64B18DE-E419-4AC4-BA41-A705850902D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7372350" y="16402050"/>
+          <a:ext cx="774700" cy="157082"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>登録する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93CD8A30-9671-4DA2-9784-8F32E09550CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3435350" y="18389600"/>
+          <a:ext cx="920750" cy="215900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>イベントへ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3015,18 +3381,18 @@
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="20"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="55"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="56"/>
       <c r="R8" s="13"/>
       <c r="S8" s="13"/>
       <c r="T8" s="13"/>
@@ -3045,26 +3411,26 @@
     </row>
     <row r="9" spans="1:256" ht="13" customHeight="1">
       <c r="A9" s="16"/>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="62" t="s">
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="65"/>
       <c r="R9" s="13"/>
       <c r="S9" s="13"/>
       <c r="T9" s="13"/>
@@ -3083,22 +3449,22 @@
     </row>
     <row r="10" spans="1:256" ht="13" customHeight="1">
       <c r="A10" s="16"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="67"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="68"/>
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
       <c r="T10" s="13"/>
@@ -3309,26 +3675,26 @@
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
-      <c r="H17" s="68" t="s">
+      <c r="H17" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="68"/>
-      <c r="N17" s="68"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="68"/>
-      <c r="S17" s="68"/>
-      <c r="T17" s="68"/>
-      <c r="U17" s="68"/>
-      <c r="V17" s="68"/>
-      <c r="W17" s="68"/>
-      <c r="X17" s="68"/>
-      <c r="Y17" s="68"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="69"/>
+      <c r="R17" s="69"/>
+      <c r="S17" s="69"/>
+      <c r="T17" s="69"/>
+      <c r="U17" s="69"/>
+      <c r="V17" s="69"/>
+      <c r="W17" s="69"/>
+      <c r="X17" s="69"/>
+      <c r="Y17" s="69"/>
       <c r="AA17" s="13"/>
       <c r="AB17" s="13"/>
       <c r="AC17" s="13"/>
@@ -3344,24 +3710,24 @@
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="68"/>
-      <c r="N18" s="68"/>
-      <c r="O18" s="68"/>
-      <c r="P18" s="68"/>
-      <c r="Q18" s="68"/>
-      <c r="R18" s="68"/>
-      <c r="S18" s="68"/>
-      <c r="T18" s="68"/>
-      <c r="U18" s="68"/>
-      <c r="V18" s="68"/>
-      <c r="W18" s="68"/>
-      <c r="X18" s="68"/>
-      <c r="Y18" s="68"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="69"/>
+      <c r="Q18" s="69"/>
+      <c r="R18" s="69"/>
+      <c r="S18" s="69"/>
+      <c r="T18" s="69"/>
+      <c r="U18" s="69"/>
+      <c r="V18" s="69"/>
+      <c r="W18" s="69"/>
+      <c r="X18" s="69"/>
+      <c r="Y18" s="69"/>
       <c r="AA18" s="13"/>
       <c r="AB18" s="13"/>
       <c r="AC18" s="13"/>
@@ -3377,24 +3743,24 @@
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="68"/>
-      <c r="M19" s="68"/>
-      <c r="N19" s="68"/>
-      <c r="O19" s="68"/>
-      <c r="P19" s="68"/>
-      <c r="Q19" s="68"/>
-      <c r="R19" s="68"/>
-      <c r="S19" s="68"/>
-      <c r="T19" s="68"/>
-      <c r="U19" s="68"/>
-      <c r="V19" s="68"/>
-      <c r="W19" s="68"/>
-      <c r="X19" s="68"/>
-      <c r="Y19" s="68"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="69"/>
+      <c r="P19" s="69"/>
+      <c r="Q19" s="69"/>
+      <c r="R19" s="69"/>
+      <c r="S19" s="69"/>
+      <c r="T19" s="69"/>
+      <c r="U19" s="69"/>
+      <c r="V19" s="69"/>
+      <c r="W19" s="69"/>
+      <c r="X19" s="69"/>
+      <c r="Y19" s="69"/>
       <c r="Z19" s="13"/>
       <c r="AA19" s="13"/>
       <c r="AB19" s="13"/>
@@ -3622,12 +3988,12 @@
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
       <c r="E26" s="23"/>
-      <c r="F26" s="69">
+      <c r="F26" s="70">
         <v>45940</v>
       </c>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="72"/>
       <c r="J26" s="22" t="s">
         <v>15</v>
       </c>
@@ -4254,7 +4620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:FU42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="G3" sqref="G3:AC3"/>
     </sheetView>
   </sheetViews>
@@ -4268,121 +4634,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72"/>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="72"/>
-      <c r="AG1" s="72"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="73"/>
     </row>
     <row r="2" spans="1:177" ht="13" customHeight="1">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="73" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="74"/>
-      <c r="T2" s="74"/>
-      <c r="U2" s="74"/>
-      <c r="V2" s="74"/>
-      <c r="W2" s="74"/>
-      <c r="X2" s="74"/>
-      <c r="Y2" s="74"/>
-      <c r="Z2" s="74"/>
-      <c r="AA2" s="74"/>
-      <c r="AB2" s="74"/>
-      <c r="AC2" s="75"/>
-      <c r="AD2" s="73" t="s">
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="75"/>
+      <c r="Y2" s="75"/>
+      <c r="Z2" s="75"/>
+      <c r="AA2" s="75"/>
+      <c r="AB2" s="75"/>
+      <c r="AC2" s="76"/>
+      <c r="AD2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="75"/>
-      <c r="AF2" s="73" t="s">
+      <c r="AE2" s="76"/>
+      <c r="AF2" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="75"/>
+      <c r="AG2" s="76"/>
     </row>
     <row r="3" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="73"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="73" t="s">
+      <c r="A3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="74"/>
-      <c r="T3" s="74"/>
-      <c r="U3" s="74"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="74"/>
-      <c r="X3" s="74"/>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="74"/>
-      <c r="AA3" s="74"/>
-      <c r="AB3" s="74"/>
-      <c r="AC3" s="75"/>
-      <c r="AD3" s="73"/>
-      <c r="AE3" s="75"/>
-      <c r="AF3" s="73"/>
-      <c r="AG3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="75"/>
+      <c r="T3" s="75"/>
+      <c r="U3" s="75"/>
+      <c r="V3" s="75"/>
+      <c r="W3" s="75"/>
+      <c r="X3" s="75"/>
+      <c r="Y3" s="75"/>
+      <c r="Z3" s="75"/>
+      <c r="AA3" s="75"/>
+      <c r="AB3" s="75"/>
+      <c r="AC3" s="76"/>
+      <c r="AD3" s="74"/>
+      <c r="AE3" s="76"/>
+      <c r="AF3" s="74"/>
+      <c r="AG3" s="76"/>
       <c r="AH3" s="2"/>
       <c r="AI3" s="5"/>
       <c r="AJ3" s="5"/>
@@ -5919,11 +6285,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8418264F-EF56-4985-AB53-DD526F0375E8}">
-  <dimension ref="A1:AG75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5BBE732-0E24-428A-AD65-3D485FB0D719}">
+  <dimension ref="A1:AG107"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="99" zoomScaleNormal="100" zoomScaleSheetLayoutView="99" workbookViewId="0">
-      <selection activeCell="AH45" sqref="AH45"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="99" zoomScaleNormal="100" zoomScaleSheetLayoutView="99" workbookViewId="0">
+      <selection activeCell="AA103" sqref="AA103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -5932,121 +6298,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="76"/>
-      <c r="AC1" s="76"/>
-      <c r="AD1" s="76"/>
-      <c r="AE1" s="76"/>
-      <c r="AF1" s="76"/>
-      <c r="AG1" s="76"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="77"/>
+      <c r="AF1" s="77"/>
+      <c r="AG1" s="77"/>
     </row>
     <row r="2" spans="1:33">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="77" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="78"/>
-      <c r="S2" s="78"/>
-      <c r="T2" s="78"/>
-      <c r="U2" s="78"/>
-      <c r="V2" s="78"/>
-      <c r="W2" s="78"/>
-      <c r="X2" s="78"/>
-      <c r="Y2" s="78"/>
-      <c r="Z2" s="78"/>
-      <c r="AA2" s="78"/>
-      <c r="AB2" s="78"/>
-      <c r="AC2" s="79"/>
-      <c r="AD2" s="77" t="s">
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="79"/>
+      <c r="Z2" s="79"/>
+      <c r="AA2" s="79"/>
+      <c r="AB2" s="79"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="79"/>
-      <c r="AF2" s="77" t="s">
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="79"/>
+      <c r="AG2" s="80"/>
     </row>
     <row r="3" spans="1:33">
-      <c r="A3" s="77"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="77" t="s">
+      <c r="A3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="78"/>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="78"/>
-      <c r="AA3" s="78"/>
-      <c r="AB3" s="78"/>
-      <c r="AC3" s="79"/>
-      <c r="AD3" s="77"/>
-      <c r="AE3" s="79"/>
-      <c r="AF3" s="77"/>
-      <c r="AG3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="79"/>
+      <c r="AB3" s="79"/>
+      <c r="AC3" s="80"/>
+      <c r="AD3" s="78"/>
+      <c r="AE3" s="80"/>
+      <c r="AF3" s="78"/>
+      <c r="AG3" s="80"/>
     </row>
     <row r="4" spans="1:33">
       <c r="A4" s="40"/>
@@ -6171,7 +6537,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="2:32" ht="13" customHeight="1">
+    <row r="37" spans="2:11" ht="13" customHeight="1">
       <c r="B37" s="39"/>
       <c r="C37" s="39"/>
       <c r="D37" s="39"/>
@@ -6183,8 +6549,8 @@
       <c r="J37" s="39"/>
       <c r="K37" s="39"/>
     </row>
-    <row r="38" spans="2:32" ht="13" customHeight="1">
-      <c r="B38" s="80" t="s">
+    <row r="38" spans="2:11" ht="13" customHeight="1">
+      <c r="B38" s="53" t="s">
         <v>29</v>
       </c>
       <c r="C38" s="39"/>
@@ -6197,106 +6563,111 @@
       <c r="J38" s="39"/>
       <c r="K38" s="39"/>
     </row>
-    <row r="40" spans="2:32">
-      <c r="B40" s="40"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="41"/>
-      <c r="N40" s="41"/>
-      <c r="O40" s="41"/>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="41"/>
-      <c r="S40" s="41"/>
-      <c r="T40" s="41"/>
-      <c r="U40" s="41"/>
-      <c r="V40" s="41"/>
-      <c r="W40" s="41"/>
-      <c r="X40" s="41"/>
-      <c r="Y40" s="41"/>
-      <c r="Z40" s="41"/>
-      <c r="AA40" s="41"/>
-      <c r="AB40" s="41"/>
-      <c r="AC40" s="41"/>
-      <c r="AD40" s="41"/>
-      <c r="AE40" s="41"/>
-      <c r="AF40" s="42"/>
-    </row>
-    <row r="41" spans="2:32">
-      <c r="B41" s="43"/>
-      <c r="AF41" s="45"/>
-    </row>
-    <row r="42" spans="2:32">
-      <c r="B42" s="43"/>
-      <c r="AF42" s="45"/>
-    </row>
-    <row r="43" spans="2:32">
-      <c r="B43" s="43"/>
-      <c r="AF43" s="45"/>
-    </row>
-    <row r="44" spans="2:32">
-      <c r="B44" s="43"/>
-      <c r="AF44" s="45"/>
-    </row>
-    <row r="45" spans="2:32">
-      <c r="B45" s="43"/>
-      <c r="AF45" s="45"/>
-    </row>
-    <row r="46" spans="2:32">
-      <c r="B46" s="43"/>
-      <c r="AF46" s="45"/>
-    </row>
-    <row r="47" spans="2:32">
-      <c r="B47" s="43"/>
-      <c r="AF47" s="45"/>
-    </row>
-    <row r="48" spans="2:32">
-      <c r="B48" s="43"/>
-      <c r="AF48" s="45"/>
-    </row>
-    <row r="49" spans="2:32">
-      <c r="B49" s="46"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="48"/>
-      <c r="H49" s="48"/>
-      <c r="I49" s="48"/>
-      <c r="J49" s="48"/>
-      <c r="K49" s="48"/>
-      <c r="L49" s="48"/>
-      <c r="M49" s="48"/>
-      <c r="N49" s="48"/>
-      <c r="O49" s="48"/>
-      <c r="P49" s="48"/>
-      <c r="Q49" s="48"/>
-      <c r="R49" s="48"/>
-      <c r="S49" s="48"/>
-      <c r="T49" s="48"/>
-      <c r="U49" s="48"/>
-      <c r="V49" s="48"/>
-      <c r="W49" s="48"/>
-      <c r="X49" s="48"/>
-      <c r="Y49" s="48"/>
-      <c r="Z49" s="48"/>
-      <c r="AA49" s="48"/>
-      <c r="AB49" s="48"/>
-      <c r="AC49" s="48"/>
-      <c r="AD49" s="48"/>
-      <c r="AE49" s="48"/>
-      <c r="AF49" s="49"/>
+    <row r="53" spans="1:33">
+      <c r="A53" s="40"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="41"/>
+      <c r="J53" s="41"/>
+      <c r="K53" s="41"/>
+      <c r="L53" s="41"/>
+      <c r="M53" s="41"/>
+      <c r="N53" s="41"/>
+      <c r="O53" s="41"/>
+      <c r="P53" s="41"/>
+      <c r="Q53" s="41"/>
+      <c r="R53" s="41"/>
+      <c r="S53" s="41"/>
+      <c r="T53" s="41"/>
+      <c r="U53" s="41"/>
+      <c r="V53" s="41"/>
+      <c r="W53" s="41"/>
+      <c r="X53" s="41"/>
+      <c r="Y53" s="41"/>
+      <c r="Z53" s="41"/>
+      <c r="AA53" s="41"/>
+      <c r="AB53" s="41"/>
+      <c r="AC53" s="41"/>
+      <c r="AD53" s="41"/>
+      <c r="AE53" s="41"/>
+      <c r="AF53" s="41"/>
+      <c r="AG53" s="42"/>
+    </row>
+    <row r="54" spans="1:33" ht="14">
+      <c r="A54" s="43"/>
+      <c r="B54" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG54" s="45"/>
+    </row>
+    <row r="55" spans="1:33">
+      <c r="A55" s="43"/>
+      <c r="AG55" s="45"/>
+    </row>
+    <row r="56" spans="1:33">
+      <c r="A56" s="46"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="48"/>
+      <c r="E56" s="48"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="48"/>
+      <c r="I56" s="48"/>
+      <c r="J56" s="48"/>
+      <c r="K56" s="48"/>
+      <c r="L56" s="48"/>
+      <c r="M56" s="48"/>
+      <c r="N56" s="48"/>
+      <c r="O56" s="48"/>
+      <c r="P56" s="48"/>
+      <c r="Q56" s="48"/>
+      <c r="R56" s="48"/>
+      <c r="S56" s="48"/>
+      <c r="T56" s="48"/>
+      <c r="U56" s="48"/>
+      <c r="V56" s="48"/>
+      <c r="W56" s="48"/>
+      <c r="X56" s="48"/>
+      <c r="Y56" s="48"/>
+      <c r="Z56" s="48"/>
+      <c r="AA56" s="48"/>
+      <c r="AB56" s="48"/>
+      <c r="AC56" s="48"/>
+      <c r="AD56" s="48"/>
+      <c r="AE56" s="48"/>
+      <c r="AF56" s="48"/>
+      <c r="AG56" s="49"/>
+    </row>
+    <row r="58" spans="1:33" ht="19">
+      <c r="B58" s="81" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33" ht="14">
+      <c r="B61" s="44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33" ht="14">
+      <c r="B64" s="44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" ht="14">
+      <c r="B67" s="44" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="70" spans="2:24" ht="13" customHeight="1">
-      <c r="B70" s="39"/>
+      <c r="B70" s="53" t="s">
+        <v>26</v>
+      </c>
       <c r="C70" s="39"/>
       <c r="D70" s="39"/>
       <c r="E70" s="39"/>
@@ -6346,6 +6717,97 @@
       <c r="V75" s="50"/>
       <c r="W75" s="50"/>
       <c r="X75" s="50"/>
+    </row>
+    <row r="84" spans="2:2" ht="14">
+      <c r="B84" s="53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33">
+      <c r="A101" s="40"/>
+      <c r="B101" s="41"/>
+      <c r="C101" s="41"/>
+      <c r="D101" s="41"/>
+      <c r="E101" s="41"/>
+      <c r="F101" s="41"/>
+      <c r="G101" s="41"/>
+      <c r="H101" s="41"/>
+      <c r="I101" s="41"/>
+      <c r="J101" s="41"/>
+      <c r="K101" s="41"/>
+      <c r="L101" s="41"/>
+      <c r="M101" s="41"/>
+      <c r="N101" s="41"/>
+      <c r="O101" s="41"/>
+      <c r="P101" s="41"/>
+      <c r="Q101" s="41"/>
+      <c r="R101" s="41"/>
+      <c r="S101" s="41"/>
+      <c r="T101" s="41"/>
+      <c r="U101" s="41"/>
+      <c r="V101" s="41"/>
+      <c r="W101" s="41"/>
+      <c r="X101" s="41"/>
+      <c r="Y101" s="41"/>
+      <c r="Z101" s="41"/>
+      <c r="AA101" s="41"/>
+      <c r="AB101" s="41"/>
+      <c r="AC101" s="41"/>
+      <c r="AD101" s="41"/>
+      <c r="AE101" s="41"/>
+      <c r="AF101" s="41"/>
+      <c r="AG101" s="42"/>
+    </row>
+    <row r="102" spans="1:33" ht="14">
+      <c r="A102" s="43"/>
+      <c r="B102" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG102" s="45"/>
+    </row>
+    <row r="103" spans="1:33">
+      <c r="A103" s="43"/>
+      <c r="AG103" s="45"/>
+    </row>
+    <row r="104" spans="1:33">
+      <c r="A104" s="46"/>
+      <c r="B104" s="48"/>
+      <c r="C104" s="48"/>
+      <c r="D104" s="48"/>
+      <c r="E104" s="48"/>
+      <c r="F104" s="48"/>
+      <c r="G104" s="48"/>
+      <c r="H104" s="48"/>
+      <c r="I104" s="48"/>
+      <c r="J104" s="48"/>
+      <c r="K104" s="48"/>
+      <c r="L104" s="48"/>
+      <c r="M104" s="48"/>
+      <c r="N104" s="48"/>
+      <c r="O104" s="48"/>
+      <c r="P104" s="48"/>
+      <c r="Q104" s="48"/>
+      <c r="R104" s="48"/>
+      <c r="S104" s="48"/>
+      <c r="T104" s="48"/>
+      <c r="U104" s="48"/>
+      <c r="V104" s="48"/>
+      <c r="W104" s="48"/>
+      <c r="X104" s="48"/>
+      <c r="Y104" s="48"/>
+      <c r="Z104" s="48"/>
+      <c r="AA104" s="48"/>
+      <c r="AB104" s="48"/>
+      <c r="AC104" s="48"/>
+      <c r="AD104" s="48"/>
+      <c r="AE104" s="48"/>
+      <c r="AF104" s="48"/>
+      <c r="AG104" s="49"/>
+    </row>
+    <row r="107" spans="1:33" ht="21">
+      <c r="K107" s="82" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6362,8 +6824,9 @@
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="67" max="16383" man="1"/>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="52" max="32" man="1"/>
+    <brk id="100" max="32" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
